--- a/data/trans_camb/P13_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.684861807349163</v>
+        <v>-1.471102812143183</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.830167930990901</v>
+        <v>-3.460870012081036</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.546387065394829</v>
+        <v>-2.566846829953562</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.42165634798912</v>
+        <v>-2.453131769572719</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.851736476704694</v>
+        <v>-3.091399730119606</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.116346668813377</v>
+        <v>-4.010708405933746</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.408548137085857</v>
+        <v>-1.332798772690612</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.658520084361015</v>
+        <v>-2.642315684111442</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.744011127608441</v>
+        <v>-2.673314510495267</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.379712016966473</v>
+        <v>2.27340112143126</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.7023181498957504</v>
+        <v>-0.6298893451161828</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.65592348852819</v>
+        <v>1.775697966910014</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.627317765309928</v>
+        <v>1.656027384222743</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7852078103011756</v>
+        <v>0.8053515743478077</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.760536938253735</v>
+        <v>-0.7795256657946243</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.348496856235693</v>
+        <v>1.362572569384725</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.2681073573684538</v>
+        <v>-0.3139225693177057</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.09730489079000751</v>
+        <v>0.2097538879530477</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.6196549949755099</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.6477504041124096</v>
+        <v>-0.6477504041124097</v>
       </c>
     </row>
     <row r="8">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5824439718905893</v>
+        <v>-0.5727942596699469</v>
       </c>
       <c r="D8" s="6" t="n">
         <v>-1</v>
@@ -789,22 +789,22 @@
         <v>-1</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.703245758613595</v>
+        <v>-0.7123707236576575</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8148989523318764</v>
+        <v>-0.8498130658824748</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4845582741018817</v>
+        <v>-0.4593332888876354</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8502349929062659</v>
+        <v>-0.867018783655752</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.929992628227397</v>
+        <v>-0.9324557742983905</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.128847036169516</v>
+        <v>1.963919007192364</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.002385359359494219</v>
+        <v>0.3208230020599744</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.516820963895146</v>
+        <v>2.212476458535348</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.029091715665645</v>
+        <v>1.20871653761981</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5879851333430745</v>
+        <v>0.5759946433659056</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2917002704693735</v>
+        <v>-0.09338934469694433</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8244476104328852</v>
+        <v>0.9487311061158678</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.04046254355569724</v>
+        <v>-0.108439618659681</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3671589336478764</v>
+        <v>0.279095531776319</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.5953272720646055</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.174743271181607</v>
+        <v>3.174743271181608</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.634811605664695</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3742770384437246</v>
+        <v>-0.2825455672162133</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.725966360935873</v>
+        <v>-0.7307040618814225</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8608596959850116</v>
+        <v>0.9607671818717615</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.5467444538590759</v>
+        <v>-0.3730321317081844</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.544102467654445</v>
+        <v>-2.551063592953206</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.244957597951656</v>
+        <v>-1.055518810145331</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.003228667018640055</v>
+        <v>0.1953600349119555</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.110965155165999</v>
+        <v>-1.110565207994814</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5094578276264431</v>
+        <v>0.470146553003072</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.720451163495798</v>
+        <v>2.45164933622307</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.96938931923112</v>
+        <v>1.971128765153752</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.037192438737195</v>
+        <v>6.347190920270039</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.486907680812814</v>
+        <v>3.757479990182042</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8740254176672898</v>
+        <v>0.8127495273973619</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.08762632893562</v>
+        <v>3.140651882297142</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.537118952118987</v>
+        <v>2.456329729835525</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9693453552274585</v>
+        <v>0.9562616986788344</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.685732555383272</v>
+        <v>3.758264843670416</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2604906960205685</v>
+        <v>-0.2766675859542398</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4743919268064336</v>
+        <v>-0.4345350738428712</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3090681988375458</v>
+        <v>0.4159473744606115</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1486779099644144</v>
+        <v>-0.1408219886524442</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7359420690805129</v>
+        <v>-0.727224733247983</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4142988339005472</v>
+        <v>-0.3597939933870738</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.0006582261834808022</v>
+        <v>0.07657977311961936</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4702907982074463</v>
+        <v>-0.4950170311214317</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.138338402404556</v>
+        <v>0.1781043116250869</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.743832556220507</v>
+        <v>3.420159281111701</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.778816477879559</v>
+        <v>2.690410392015328</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8.895688227997871</v>
+        <v>8.084747439190972</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.272086050866508</v>
+        <v>2.38863986541494</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7100288553605678</v>
+        <v>0.6384259974775881</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.953056039087082</v>
+        <v>2.105007854245232</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.058334702098343</v>
+        <v>1.92461470085073</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7554507150097134</v>
+        <v>0.7704779127273663</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.780259872280367</v>
+        <v>2.776673407764701</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-0.5161246785448558</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.616261875173283</v>
+        <v>-0.6162618751732838</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.379171229914964</v>
+        <v>-2.157331934764136</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.976930459820727</v>
+        <v>-2.816061608066756</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.268544907158649</v>
+        <v>-3.229689621170545</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.213040920793076</v>
+        <v>1.114429243350282</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.206606734130137</v>
+        <v>-2.29963900649087</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.185648902664717</v>
+        <v>-2.309967483511697</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.08803510028938671</v>
+        <v>0.2051858443248101</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.993658011423219</v>
+        <v>-2.056701385201557</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.075556952339399</v>
+        <v>-2.070018823827205</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.236292578962821</v>
+        <v>2.406194800094938</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.351386069760957</v>
+        <v>1.648098820917406</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.222714460914984</v>
+        <v>1.19161638604686</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.854308918437741</v>
+        <v>5.993115745964352</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.436489742429852</v>
+        <v>1.448931426677648</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.223658190819405</v>
+        <v>1.319062527186439</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.533873994933261</v>
+        <v>3.342393123617885</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.94362145133516</v>
+        <v>0.9908449339083433</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.8438365062956319</v>
+        <v>0.7858814761787095</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.1421782233791839</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.1697632804451278</v>
+        <v>-0.169763280445128</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4555454600358537</v>
+        <v>-0.4219314005003364</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5713873176048438</v>
+        <v>-0.5573529056922624</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5978224305563999</v>
+        <v>-0.6079951102889438</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2643047515147709</v>
+        <v>0.1819679692104812</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5398269148149851</v>
+        <v>-0.543146382353461</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5188310188822234</v>
+        <v>-0.5349279738320927</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0140084730317403</v>
+        <v>0.03003264383936762</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4585123557018876</v>
+        <v>-0.468866536179214</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4655318655018532</v>
+        <v>-0.4460892675947632</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.740940963832477</v>
+        <v>0.8648290171311358</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4682810303882928</v>
+        <v>0.6473216563601399</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.4504947168815482</v>
+        <v>0.4344516844926693</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.418629076436932</v>
+        <v>2.510292038441475</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6361616570651729</v>
+        <v>0.641640704609959</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5419372009164747</v>
+        <v>0.5850334253186603</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.226184784934223</v>
+        <v>1.130275526177186</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3388829617147204</v>
+        <v>0.3563837095247485</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3053421123445263</v>
+        <v>0.302118140936363</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7557731879247886</v>
+        <v>0.8396506797517121</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6150573628937681</v>
+        <v>0.596345851502453</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.006119661362819</v>
+        <v>0.8930743500561161</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.618233725611565</v>
+        <v>1.644191189271687</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.3470977431944556</v>
+        <v>-0.2746959358393689</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.293579754812093</v>
+        <v>-1.363853337069412</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.855664132001531</v>
+        <v>1.815334501615116</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.7492400251185567</v>
+        <v>0.8534333273076802</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4296044254847318</v>
+        <v>0.3019224078789163</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.950904595863129</v>
+        <v>5.001440806874702</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.655363543433526</v>
+        <v>4.73561470345844</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.974519475018237</v>
+        <v>5.118466459992326</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.379645443386973</v>
+        <v>7.45602254463417</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.103603388898309</v>
+        <v>4.994214389050567</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.9852036427202</v>
+        <v>2.944956040871553</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.390245746640154</v>
+        <v>5.429840379447186</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.059714578679263</v>
+        <v>4.174538616801805</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.324986886528448</v>
+        <v>3.393455464576594</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1765525112533181</v>
+        <v>0.1927690708697399</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.06863929283961387</v>
+        <v>0.1522411116122962</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2192718041854784</v>
+        <v>0.2414384255952367</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.287706638126603</v>
+        <v>0.2728687337727049</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.08613119662288891</v>
+        <v>-0.05806716102853567</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2351251942358992</v>
+        <v>-0.2436857062563995</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5397918708659331</v>
+        <v>0.4837625235863388</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1792350587810703</v>
+        <v>0.2318873367401867</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1138321168948251</v>
+        <v>0.0863098538875898</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6.825069746723454</v>
+        <v>7.691681067948994</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6.373572413225538</v>
+        <v>6.221315461122608</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6.712732806001124</v>
+        <v>7.942579285864622</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.675440579341545</v>
+        <v>2.619184473297011</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.823066922972413</v>
+        <v>1.824117448119745</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.122491225878178</v>
+        <v>1.085652802556805</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.714743415645225</v>
+        <v>2.732917282060671</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.056730587301864</v>
+        <v>2.165992957605261</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.711641925159336</v>
+        <v>1.854116433645052</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>2.199176773224623</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>3.047476256937014</v>
+        <v>3.047476256937018</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.674929348530118</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.676972796230369</v>
+        <v>-1.812896329548193</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.6763402563908</v>
+        <v>-1.660234805325207</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3631597922738716</v>
+        <v>0.6115104079918402</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8581914449567216</v>
+        <v>1.018643680021322</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.084177156724133</v>
+        <v>-0.9154122996102841</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.02814749668829317</v>
+        <v>-0.1281510595575354</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.4491919824602827</v>
+        <v>0.3782716704779699</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.5191559976657539</v>
+        <v>-0.4258157944029639</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.092490906495011</v>
+        <v>1.168387942768158</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.339979873750905</v>
+        <v>3.579433122192238</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.489220286481819</v>
+        <v>3.721055114650028</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.554414842711893</v>
+        <v>5.584492271878167</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.206967884139438</v>
+        <v>8.263111408882011</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.483905865218029</v>
+        <v>5.255473395141697</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.855490734655164</v>
+        <v>5.838536696298497</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.938246474443502</v>
+        <v>4.968026688409598</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.623286500960049</v>
+        <v>3.859223478742305</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.022744890601853</v>
+        <v>4.808172171088075</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.415657002847068</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5759904627169595</v>
+        <v>0.5759904627169603</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.6209434584191507</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4251789668324499</v>
+        <v>-0.4489079170726585</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4175037627536823</v>
+        <v>-0.3913740505740656</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.05030440039390068</v>
+        <v>0.02228436956180737</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.08457518311660882</v>
+        <v>0.1215250712931812</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1835046498151204</v>
+        <v>-0.146863900395092</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.01328352975512666</v>
+        <v>-0.03058621873563845</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05275196924660063</v>
+        <v>0.04990313299454222</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.123618548920975</v>
+        <v>-0.08612807903551495</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.157031321937477</v>
+        <v>0.2020737024730041</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.715742880777649</v>
+        <v>1.709680651577247</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.678578784690939</v>
+        <v>1.860041192216466</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.668837954466238</v>
+        <v>2.63509480527508</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.211208120659599</v>
+        <v>2.221408888085203</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.584461931560123</v>
+        <v>1.347147964237049</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.730908644703507</v>
+        <v>1.612612860826743</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.461021271575838</v>
+        <v>1.473137576316051</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.063533649880192</v>
+        <v>1.169002609092864</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.608461480728171</v>
+        <v>1.512769551405332</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.11867676500426</v>
+        <v>-2.525001566641609</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.964245022218705</v>
+        <v>-5.795729585047546</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.26654773051387</v>
+        <v>-2.798294025605396</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2.813005552737573</v>
+        <v>2.528310424977448</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-6.371663281087995</v>
+        <v>-6.427772587640501</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.308524440819221</v>
+        <v>-3.41394897258669</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.590012512730731</v>
+        <v>1.766182999929032</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-4.878715405520272</v>
+        <v>-4.88831301180122</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-2.202467048720746</v>
+        <v>-1.982034246657308</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>6.564349956522937</v>
+        <v>6.238713563574643</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.433185433941367</v>
+        <v>1.171859776356222</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.518962544981625</v>
+        <v>4.383361031534093</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13.03504681032331</v>
+        <v>12.66330095321501</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.295535782165609</v>
+        <v>1.287938515448466</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.986679310928261</v>
+        <v>3.423559542690033</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>8.487245374101512</v>
+        <v>8.416169930908769</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.4043343205291745</v>
+        <v>0.3859307356769545</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>3.029906914521941</v>
+        <v>3.189129969490532</v>
       </c>
     </row>
     <row r="37">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2885464120409285</v>
+        <v>-0.3380175228688997</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.7216348751811873</v>
+        <v>-0.6905223497310257</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2705753178580521</v>
+        <v>-0.3556394854205451</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.2336097882760614</v>
+        <v>0.231274499676158</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.6019068348871012</v>
+        <v>-0.5973460198291245</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3018525211490435</v>
+        <v>-0.31743533474877</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1754856016346143</v>
+        <v>0.2117515632150281</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.5592534012571654</v>
+        <v>-0.5571795025313204</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.2357586146817396</v>
+        <v>-0.2150254197245143</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.490913475815404</v>
+        <v>1.454584671403478</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3348009764121794</v>
+        <v>0.3470477516764042</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.196638672306464</v>
+        <v>1.068051318502309</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.861378305690707</v>
+        <v>1.835741191324627</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.2212579365176793</v>
+        <v>0.1989598159609056</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.6762066348426869</v>
+        <v>0.5099448137441767</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.41865835420406</v>
+        <v>1.398950373961504</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.06401880000984905</v>
+        <v>0.07138008298482143</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.5126163557991132</v>
+        <v>0.5440092160081237</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>1.007490979878654</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>8.654405590092908</v>
+        <v>8.654405590092901</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.600314971598699</v>
+        <v>-2.552703546679899</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.225763617812818</v>
+        <v>-6.812737345229491</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.926747605185646</v>
+        <v>-2.21426531078446</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>5.977428221379724</v>
+        <v>6.54229826405297</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.213583260675437</v>
+        <v>-3.484259274508854</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>6.87100045012291</v>
+        <v>6.831001208468036</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>4.917332996163301</v>
+        <v>4.420952002492661</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.92376983488064</v>
+        <v>-2.658237063851681</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>4.821529927334138</v>
+        <v>4.566524427773035</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>9.937879658787892</v>
+        <v>9.728532451715246</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.121363816612317</v>
+        <v>4.181926855831241</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>8.589750466934163</v>
+        <v>8.124425101822272</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>17.60964335891831</v>
+        <v>18.88347354818816</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>8.016742927328991</v>
+        <v>8.137507181611225</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>16.77924286916874</v>
+        <v>16.83346797062378</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>13.60406077896994</v>
+        <v>13.4456095406411</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>5.089948249598751</v>
+        <v>5.159942174875964</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>12.26194449779124</v>
+        <v>12.05343922232982</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>0.08560081255575384</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.7353159139829109</v>
+        <v>0.7353159139829104</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2027211728138353</v>
+        <v>-0.2121068795748849</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.4694503656715674</v>
+        <v>-0.5010223473831581</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.159994324358129</v>
+        <v>-0.1692453742472458</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.3581571824948167</v>
+        <v>0.3788221070526825</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2246834570947049</v>
+        <v>-0.2327344504194705</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4226171423402539</v>
+        <v>0.3986257015058186</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3258032352853802</v>
+        <v>0.312561793143079</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2067845889861069</v>
+        <v>-0.1928644361429674</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.3409960775672994</v>
+        <v>0.3072544216358835</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.459837255410061</v>
+        <v>1.32372463529747</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.6081113380074866</v>
+        <v>0.6672965562520596</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.231854408555142</v>
+        <v>1.20373157578672</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.716428250369355</v>
+        <v>1.834215508681102</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.7581317687819015</v>
+        <v>0.7985771114938353</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.72751440495688</v>
+        <v>1.710411774965505</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.377988394445975</v>
+        <v>1.383337296917652</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.5268041674305458</v>
+        <v>0.5369881373172087</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.314243050958316</v>
+        <v>1.230792794517146</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>0.2783966246153333</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>2.039987086733661</v>
+        <v>2.039987086733662</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>4.475870962860765</v>
@@ -2153,7 +2153,7 @@
         <v>0.6784176552882361</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>2.606354272822482</v>
+        <v>2.606354272822481</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>2.996987310924585</v>
@@ -2162,7 +2162,7 @@
         <v>0.4873252230141533</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>2.341252046322673</v>
+        <v>2.341252046322674</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.4947877156097306</v>
+        <v>0.5597660223757389</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.5406993135092802</v>
+        <v>-0.7279475755640156</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1.080938409885803</v>
+        <v>0.9264742572297239</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3.275611652559916</v>
+        <v>3.281744727548465</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.5047254966529119</v>
+        <v>-0.4029794192278743</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>1.701476810939303</v>
+        <v>1.56432369897891</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>2.225529537392855</v>
+        <v>2.223794158262537</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.2037124589313178</v>
+        <v>-0.1984770863696363</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>1.619376226564993</v>
+        <v>1.630974905862443</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.417574072448925</v>
+        <v>2.459196601027841</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.248009085175977</v>
+        <v>1.107240245422503</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3.094778709023027</v>
+        <v>3.005139395568906</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>5.779674468137834</v>
+        <v>5.755254743111711</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.76217451165841</v>
+        <v>1.745123412468996</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>3.705280158099064</v>
+        <v>3.552944889448057</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>3.832600083460125</v>
+        <v>3.81071625067444</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.250081069296675</v>
+        <v>1.257312925311564</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>3.116528181062549</v>
+        <v>3.004216323125315</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.08736432005844225</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.6401732959468964</v>
+        <v>0.6401732959468969</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.9228510393492302</v>
@@ -2258,7 +2258,7 @@
         <v>0.1398785719004412</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.5373874201344705</v>
+        <v>0.5373874201344703</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.7434553361272584</v>
@@ -2267,7 +2267,7 @@
         <v>0.1208895800654911</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.5807886875972342</v>
+        <v>0.5807886875972346</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1314511574667419</v>
+        <v>0.1388615968425996</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.158022255709067</v>
+        <v>-0.1917110033721603</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.2938127045892814</v>
+        <v>0.2282837686384108</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.6075276315350751</v>
+        <v>0.5975960656928313</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.09289767945900301</v>
+        <v>-0.08507254242732104</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3075710659330676</v>
+        <v>0.2827621474407903</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.5062252308352307</v>
+        <v>0.5059324937506737</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.0469329967036134</v>
+        <v>-0.04288395376948975</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.358306383271826</v>
+        <v>0.3695542265875328</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.8842795686339595</v>
+        <v>0.8930127833272777</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.4595608178375908</v>
+        <v>0.4038460177866051</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.107934323316102</v>
+        <v>1.086045471270503</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.358942541179289</v>
+        <v>1.311006858349098</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.3965874384851783</v>
+        <v>0.3973429983905395</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.8675856503543474</v>
+        <v>0.8112024578733843</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>1.023769604380138</v>
+        <v>1.051671467978201</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.3262131368848779</v>
+        <v>0.3423223136487622</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.8384015942081746</v>
+        <v>0.8254010119206844</v>
       </c>
     </row>
     <row r="52">
